--- a/saturation.xlsx
+++ b/saturation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukev\Documents\Thesis\EBM-NLP\pio_ebm_nlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CAB2495-7A2A-4C09-9A7E-A81701565D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A348C-8A95-4798-B359-0E5366347299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CDE010D2-581A-4A7B-B2E2-CABB205CFC0B}"/>
   </bookViews>
@@ -1637,7 +1637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1A428FE-4A17-48CE-8334-29805D9E2E49}" type="CELLRANGE">
+                    <a:fld id="{362C7AE5-3C5A-406C-A7C4-72425C9ECDA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1670,8 +1670,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{680BA7EF-CA37-459C-90B5-5EF5EE55250A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{26479AD4-B387-4B4E-B50A-FC26A951A68A}" type="CELLRANGE">
+                      <a:rPr lang="en-NL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1704,8 +1704,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D017D22A-07F9-4786-B5C0-2C857E93CC42}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9B86924C-BAA9-414D-9157-C75B43629F65}" type="CELLRANGE">
+                      <a:rPr lang="en-NL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1744,7 +1744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEA001E1-8A88-4829-BF6F-EC34E412D14F}" type="CELLRANGE">
+                    <a:fld id="{17778C6B-8B04-4100-AE53-FD4537596349}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1931,7 +1931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12751D39-26EE-4398-BA1A-F369FE467ABC}" type="CELLRANGE">
+                    <a:fld id="{41F6AF0C-97CF-4628-A7EC-529394606D13}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1950,7 +1950,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1965,8 +1964,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A42BBF9D-11A2-42BD-9BB1-84112BD02C7F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FE91D632-9BBD-4E90-B6F8-6A92ED641785}" type="CELLRANGE">
+                      <a:rPr lang="en-NL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1999,8 +1998,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{495CA5D9-3BCA-4E80-965B-7A22F5304B93}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1980CD56-00F3-4F11-BB2E-D9FCAEDB28FE}" type="CELLRANGE">
+                      <a:rPr lang="en-NL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2039,7 +2038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29DC48B8-D34D-4BC6-8C3B-4FEF2CAD6294}" type="CELLRANGE">
+                    <a:fld id="{BC3B9820-3512-42D1-8ECB-119604730956}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2072,8 +2071,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24EC3D61-9082-458F-8058-B2B8ADD58C5A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E80EB92D-309E-4945-90B0-732824CCA0E6}" type="CELLRANGE">
+                      <a:rPr lang="en-NL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2112,7 +2111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01C2AD57-FCDA-4A25-B1BB-4B55ED06EF6F}" type="CELLRANGE">
+                    <a:fld id="{A351FE22-BF56-423D-82A5-161B92E0089B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2151,7 +2150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F110AFA3-F607-40EB-AF00-E9A3137FDC92}" type="CELLRANGE">
+                    <a:fld id="{30389FB4-6922-4B12-9D51-9FBD24A9AC17}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3040,7 +3039,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3075,7 +3074,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1613224736"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="30"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3152,7 +3151,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5469,7 +5468,7 @@
   <dimension ref="A2:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
